--- a/medicine/Psychotrope/Friuli_Latisana_Refosco_dal_peduncolo_rosso_superiore/Friuli_Latisana_Refosco_dal_peduncolo_rosso_superiore.xlsx
+++ b/medicine/Psychotrope/Friuli_Latisana_Refosco_dal_peduncolo_rosso_superiore/Friuli_Latisana_Refosco_dal_peduncolo_rosso_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Latisana Refosco dal peduncolo rosso superiore est un vin rouge italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 19 mai 1975. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en provinces de Pordenone et d'Udine dans les communes de Castions di Strada, Latisana, Lignano Sabbiadoro, Muzzana del Turgnano, Morsano al Tagliamento, Palazzolo dello Stella, Pocenia, Precenicco, Rivignano, Ronchis, Teor et Varmo.
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec des reflets violacés
 odeur : intense, agréable, légèrement épicé
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
